--- a/experiments/analysis/intranode-analysis.xlsx
+++ b/experiments/analysis/intranode-analysis.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ethan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengli/Workspace/IntellijWorkspace/harp-sahad/experiments/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1940" yWindow="1000" windowWidth="27080" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="fasciajavamiami" sheetId="1" r:id="rId1"/>
-    <sheet name="fasciajavanyc" sheetId="2" r:id="rId2"/>
-    <sheet name="comparison" sheetId="7" r:id="rId3"/>
-    <sheet name="fasciacpp" sheetId="3" r:id="rId4"/>
-    <sheet name="vtune" sheetId="6" r:id="rId5"/>
+    <sheet name="vtune" sheetId="8" r:id="rId1"/>
+    <sheet name="fasciajavamiami" sheetId="1" r:id="rId2"/>
+    <sheet name="fasciajavanyc" sheetId="2" r:id="rId3"/>
+    <sheet name="comparison" sheetId="7" r:id="rId4"/>
+    <sheet name="fasciacpp" sheetId="3" r:id="rId5"/>
     <sheet name="harp-sahad" sheetId="4" r:id="rId6"/>
     <sheet name="dataset" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
   <si>
     <t>repeat-1</t>
   </si>
@@ -137,9 +140,6 @@
     <t>Above experiments used default JVM configuration.</t>
   </si>
   <si>
-    <t>profiling: 三种实现miami u5-1 固定线程</t>
-  </si>
-  <si>
     <t>fascia.miami.u12-2.XmxXms100g.multithreads.20170505.log</t>
   </si>
   <si>
@@ -178,12 +178,90 @@
   <si>
     <t>miami-u5-1</t>
   </si>
+  <si>
+    <t>1 thread</t>
+  </si>
+  <si>
+    <t>cpp-none</t>
+  </si>
+  <si>
+    <t>cpp-O3</t>
+  </si>
+  <si>
+    <t>Clockticks</t>
+  </si>
+  <si>
+    <t>Instructions Retired</t>
+  </si>
+  <si>
+    <t>Front-End Bound</t>
+  </si>
+  <si>
+    <t>Bad Speculation</t>
+  </si>
+  <si>
+    <t>Back-End Bound</t>
+  </si>
+  <si>
+    <t>Retiring</t>
+  </si>
+  <si>
+    <t>Elapsed Time (ms)</t>
+  </si>
+  <si>
+    <t>CPU Time (ms)</t>
+  </si>
+  <si>
+    <t>Average CPU Usage</t>
+  </si>
+  <si>
+    <t>CPI Rate</t>
+  </si>
+  <si>
+    <t>cpp-none doesn't use compiler optimization option</t>
+  </si>
+  <si>
+    <t>cpp-O3 uses compiler optimization option O3</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>dataset: nyc</t>
+  </si>
+  <si>
+    <t>template: u5-1</t>
+  </si>
+  <si>
+    <t>2 threads</t>
+  </si>
+  <si>
+    <t>4 threads</t>
+  </si>
+  <si>
+    <t>8 threads</t>
+  </si>
+  <si>
+    <t>16 threads</t>
+  </si>
+  <si>
+    <t>2. cpp-none uses  2x instructions of cpp-O3</t>
+  </si>
+  <si>
+    <t>3. java uses 1.7x instructions of cpp-none,  3.6x instructions of cpp-O3</t>
+  </si>
+  <si>
+    <t>1. Elapsed Time here is larger than execution time evaluated without Vtune. The reason could be some overhead of Vtuen profiling, especially on Java.</t>
+  </si>
+  <si>
+    <t>4. For Front-End Bound, cpp-none and cpp-O3 are similar. Java is about 3x of cpp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +272,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -249,6 +334,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,7 +414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -546,11 +638,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2062775632"/>
-        <c:axId val="-2135856304"/>
+        <c:axId val="412285200"/>
+        <c:axId val="434279744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2062775632"/>
+        <c:axId val="412285200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +674,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -648,7 +739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135856304"/>
+        <c:crossAx val="434279744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -656,7 +747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135856304"/>
+        <c:axId val="434279744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +793,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -763,7 +853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2062775632"/>
+        <c:crossAx val="412285200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -777,7 +867,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -884,7 +973,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1007,11 +1095,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2084453280"/>
-        <c:axId val="-2138105248"/>
+        <c:axId val="418777200"/>
+        <c:axId val="413071792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2084453280"/>
+        <c:axId val="418777200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,7 +1142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138105248"/>
+        <c:crossAx val="413071792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1062,7 +1150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138105248"/>
+        <c:axId val="413071792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,7 +1201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084453280"/>
+        <c:crossAx val="418777200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1127,7 +1215,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1261,7 +1348,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1501,11 +1587,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2095608960"/>
-        <c:axId val="-2138562160"/>
+        <c:axId val="348521344"/>
+        <c:axId val="413063024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095608960"/>
+        <c:axId val="348521344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1628,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1609,7 +1694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138562160"/>
+        <c:crossAx val="413063024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1617,7 +1702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138562160"/>
+        <c:axId val="413063024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1748,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1724,7 +1808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095608960"/>
+        <c:crossAx val="348521344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1738,7 +1822,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1845,7 +1928,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1968,11 +2050,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2063776608"/>
-        <c:axId val="-2064187264"/>
+        <c:axId val="429972032"/>
+        <c:axId val="418475104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2063776608"/>
+        <c:axId val="429972032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064187264"/>
+        <c:crossAx val="418475104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +2105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064187264"/>
+        <c:axId val="418475104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,7 +2156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063776608"/>
+        <c:crossAx val="429972032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2088,7 +2170,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2197,7 +2278,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2387,11 +2467,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2082222384"/>
-        <c:axId val="-2093910816"/>
+        <c:axId val="437596448"/>
+        <c:axId val="411453536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082222384"/>
+        <c:axId val="437596448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,7 +2500,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2481,7 +2560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093910816"/>
+        <c:crossAx val="411453536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2489,7 +2568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093910816"/>
+        <c:axId val="411453536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,7 +2611,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2587,7 +2665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082222384"/>
+        <c:crossAx val="437596448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2601,7 +2679,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2706,7 +2783,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2896,11 +2972,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1587091904"/>
-        <c:axId val="-2070275424"/>
+        <c:axId val="437629696"/>
+        <c:axId val="345473536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1587091904"/>
+        <c:axId val="437629696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2929,7 +3005,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2990,7 +3065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070275424"/>
+        <c:crossAx val="345473536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2998,7 +3073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070275424"/>
+        <c:axId val="345473536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3116,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3096,7 +3170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1587091904"/>
+        <c:crossAx val="437629696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3110,7 +3184,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3215,7 +3288,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3405,11 +3477,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2061542240"/>
-        <c:axId val="-2096673888"/>
+        <c:axId val="429191936"/>
+        <c:axId val="429001728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2061542240"/>
+        <c:axId val="429191936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3438,7 +3510,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3499,7 +3570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096673888"/>
+        <c:crossAx val="429001728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3507,7 +3578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096673888"/>
+        <c:axId val="429001728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3550,7 +3621,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3605,7 +3675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061542240"/>
+        <c:crossAx val="429191936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3619,7 +3689,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4065,11 +4134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065568288"/>
-        <c:axId val="-2088937296"/>
+        <c:axId val="413220016"/>
+        <c:axId val="333699552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065568288"/>
+        <c:axId val="413220016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088937296"/>
+        <c:crossAx val="333699552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4180,7 +4249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088937296"/>
+        <c:axId val="333699552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4286,7 +4355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065568288"/>
+        <c:crossAx val="413220016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4419,7 +4488,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4678,11 +4746,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2137946784"/>
-        <c:axId val="-2136297776"/>
+        <c:axId val="351984544"/>
+        <c:axId val="365444512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2137946784"/>
+        <c:axId val="351984544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4714,7 +4782,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4781,7 +4848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136297776"/>
+        <c:crossAx val="365444512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4789,7 +4856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136297776"/>
+        <c:axId val="365444512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4835,7 +4902,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4896,7 +4962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137946784"/>
+        <c:crossAx val="351984544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4910,7 +4976,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10417,6 +10482,655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:S23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D3" s="3"/>
+      <c r="E3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1595182392770</v>
+      </c>
+      <c r="F5" s="3">
+        <v>830949246422</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3086038629051</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1640752461125</v>
+      </c>
+      <c r="I5" s="3">
+        <v>859071288605</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3109272663902</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1715894573838</v>
+      </c>
+      <c r="L5" s="3">
+        <v>889703334553</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3361533042292</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1601894402838</v>
+      </c>
+      <c r="O5" s="9">
+        <v>885109327662</v>
+      </c>
+      <c r="P5" s="3">
+        <v>3879643819457</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1796324694483</v>
+      </c>
+      <c r="R5" s="3">
+        <v>930057395084</v>
+      </c>
+      <c r="S5" s="3">
+        <v>5086497629735</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1813182719770</v>
+      </c>
+      <c r="F6" s="3">
+        <v>843033264548</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3061660592484</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1814002721000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>840965261446</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3148462722687</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1813182719770</v>
+      </c>
+      <c r="L6" s="3">
+        <v>840089260132</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3013510520259</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1737998606994</v>
+      </c>
+      <c r="O6" s="9">
+        <v>839929259892</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3067758601631</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1825222737830</v>
+      </c>
+      <c r="R6" s="3">
+        <v>851265276896</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3065366598043</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="P7" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="R7" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="S7" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.629</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.622</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.223</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.253</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.223</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.219</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="4:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="12">
+        <v>533.51400000000001</v>
+      </c>
+      <c r="F11" s="12">
+        <v>273.97199999999998</v>
+      </c>
+      <c r="G11" s="12">
+        <v>646.07500000000005</v>
+      </c>
+      <c r="H11" s="10">
+        <v>351.221</v>
+      </c>
+      <c r="I11" s="10">
+        <v>208.1</v>
+      </c>
+      <c r="J11" s="10">
+        <v>509.92599999999999</v>
+      </c>
+      <c r="K11" s="10">
+        <v>251.72800000000001</v>
+      </c>
+      <c r="L11" s="10">
+        <v>168.02</v>
+      </c>
+      <c r="M11" s="10">
+        <v>442.71800000000002</v>
+      </c>
+      <c r="N11" s="10">
+        <v>194.57300000000001</v>
+      </c>
+      <c r="O11" s="10">
+        <v>146.70599999999999</v>
+      </c>
+      <c r="P11" s="10">
+        <v>422.85899999999998</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>169.374</v>
+      </c>
+      <c r="R11" s="10">
+        <v>137.28100000000001</v>
+      </c>
+      <c r="S11" s="10">
+        <v>433.52300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3">
+        <v>579.27200000000005</v>
+      </c>
+      <c r="F12" s="3">
+        <v>268.90300000000002</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1094.0129999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>530.09699999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <v>277.94400000000002</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1092.251</v>
+      </c>
+      <c r="K12" s="3">
+        <v>566.97299999999996</v>
+      </c>
+      <c r="L12" s="3">
+        <v>292.69499999999999</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1179.4939999999999</v>
+      </c>
+      <c r="N12" s="3">
+        <v>571.11400000000003</v>
+      </c>
+      <c r="O12" s="3">
+        <v>310.62099999999998</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1402.1310000000001</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>680.61</v>
+      </c>
+      <c r="R12" s="3">
+        <v>349.54300000000001</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1898.076</v>
+      </c>
+    </row>
+    <row r="13" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2.31</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.768</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>4.0739999999999998</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2.577</v>
+      </c>
+      <c r="S13" s="3">
+        <v>4.4290000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.008</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.022</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.115</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.054</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1.093</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1.659</v>
+      </c>
+    </row>
+    <row r="16" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11563,7 +12277,7 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -11737,7 +12451,7 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
@@ -11747,7 +12461,7 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -11766,7 +12480,7 @@
       </c>
       <c r="C75" s="5"/>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -11905,7 +12619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M59"/>
   <sheetViews>
@@ -12610,15 +13324,15 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s">
         <v>40</v>
-      </c>
-      <c r="J53" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
@@ -12753,304 +13467,6 @@
       <c r="J59">
         <f t="shared" si="3"/>
         <v>79.212666666666678</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:H33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>287.13866666666667</v>
-      </c>
-      <c r="G5">
-        <v>160.99073733333333</v>
-      </c>
-      <c r="H5">
-        <f>F5/G5</f>
-        <v>1.7835725919569054</v>
-      </c>
-    </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>155.51033333333299</v>
-      </c>
-      <c r="G6">
-        <v>99.918898666666664</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H9" si="0">F6/G6</f>
-        <v>1.5563655665593505</v>
-      </c>
-    </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>118.483</v>
-      </c>
-      <c r="G7">
-        <v>59.316749000000002</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>1.9974628076801715</v>
-      </c>
-    </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>98.435333333333332</v>
-      </c>
-      <c r="G8">
-        <v>38.834148999999996</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>2.5347622097585645</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E9">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>79.212666666666678</v>
-      </c>
-      <c r="G9">
-        <v>31.276436666666665</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>2.5326627681691365</v>
-      </c>
-    </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>4073.37</v>
-      </c>
-      <c r="G18">
-        <v>2413.3823296666701</v>
-      </c>
-      <c r="H18">
-        <f>F18/G18</f>
-        <v>1.6878262304019616</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2905.1030000000001</v>
-      </c>
-      <c r="G19">
-        <v>1572.5988056666699</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H22" si="1">F19/G19</f>
-        <v>1.8473262153906083</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>2004.6990000000001</v>
-      </c>
-      <c r="G20">
-        <v>858.49551966666661</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>2.3351304160310318</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>1436.5766666666668</v>
-      </c>
-      <c r="G21">
-        <v>525.74965566666663</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>2.7324348217499899</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E22">
-        <v>16</v>
-      </c>
-      <c r="F22">
-        <v>1068.3815</v>
-      </c>
-      <c r="G22">
-        <v>359.2299726666667</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>2.9740878581736898</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>22.1613333333333</v>
-      </c>
-      <c r="G29">
-        <v>11.738659666666669</v>
-      </c>
-      <c r="H29">
-        <f>F29/G29</f>
-        <v>1.8878929931211024</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1">
-        <v>14.472333333333333</v>
-      </c>
-      <c r="G30">
-        <v>7.5189473333333332</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ref="H30:H33" si="2">F30/G30</f>
-        <v>1.924781846678715</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>12.156666666666666</v>
-      </c>
-      <c r="G31">
-        <v>4.7357023333333297</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>2.5670250811794424</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1">
-        <v>11.454666666666666</v>
-      </c>
-      <c r="G32">
-        <v>3.2832666666666661</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>3.4888018030822967</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E33">
-        <v>16</v>
-      </c>
-      <c r="F33" s="1">
-        <v>10.516666666666666</v>
-      </c>
-      <c r="G33">
-        <v>2.6887373333333335</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
-        <v>3.9113774842515912</v>
       </c>
     </row>
   </sheetData>
@@ -13060,6 +13476,304 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>287.13866666666667</v>
+      </c>
+      <c r="G5">
+        <v>160.99073733333333</v>
+      </c>
+      <c r="H5">
+        <f>F5/G5</f>
+        <v>1.7835725919569054</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>155.51033333333299</v>
+      </c>
+      <c r="G6">
+        <v>99.918898666666664</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H9" si="0">F6/G6</f>
+        <v>1.5563655665593505</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>118.483</v>
+      </c>
+      <c r="G7">
+        <v>59.316749000000002</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.9974628076801715</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>98.435333333333332</v>
+      </c>
+      <c r="G8">
+        <v>38.834148999999996</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2.5347622097585645</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>79.212666666666678</v>
+      </c>
+      <c r="G9">
+        <v>31.276436666666665</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2.5326627681691365</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4073.37</v>
+      </c>
+      <c r="G18">
+        <v>2413.3823296666701</v>
+      </c>
+      <c r="H18">
+        <f>F18/G18</f>
+        <v>1.6878262304019616</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2905.1030000000001</v>
+      </c>
+      <c r="G19">
+        <v>1572.5988056666699</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H22" si="1">F19/G19</f>
+        <v>1.8473262153906083</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>2004.6990000000001</v>
+      </c>
+      <c r="G20">
+        <v>858.49551966666661</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>2.3351304160310318</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>1436.5766666666668</v>
+      </c>
+      <c r="G21">
+        <v>525.74965566666663</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>2.7324348217499899</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>1068.3815</v>
+      </c>
+      <c r="G22">
+        <v>359.2299726666667</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>2.9740878581736898</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>22.1613333333333</v>
+      </c>
+      <c r="G29">
+        <v>11.738659666666669</v>
+      </c>
+      <c r="H29">
+        <f>F29/G29</f>
+        <v>1.8878929931211024</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>14.472333333333333</v>
+      </c>
+      <c r="G30">
+        <v>7.5189473333333332</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H33" si="2">F30/G30</f>
+        <v>1.924781846678715</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>12.156666666666666</v>
+      </c>
+      <c r="G31">
+        <v>4.7357023333333297</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>2.5670250811794424</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>11.454666666666666</v>
+      </c>
+      <c r="G32">
+        <v>3.2832666666666661</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>3.4888018030822967</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>16</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10.516666666666666</v>
+      </c>
+      <c r="G33">
+        <v>2.6887373333333335</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>3.9113774842515912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M43"/>
   <sheetViews>
@@ -13710,26 +14424,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
